--- a/biology/Médecine/Veine_grande_saphène/Veine_grande_saphène.xlsx
+++ b/biology/Médecine/Veine_grande_saphène/Veine_grande_saphène.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Veine_grande_saph%C3%A8ne</t>
+          <t>Veine_grande_saphène</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La veine grande saphène (ou veine saphène interne) est une veine superficielle du membre inférieur. Elle fait suite à la veine marginale médiale du pied[1]. C'est la veine la plus longue du corps, s'étendant le long du membre inférieur et ramenant le sang du pied, de la jambe et de la cuisse vers la veine fémorale au niveau du triangle fémoral .  
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La veine grande saphène (ou veine saphène interne) est une veine superficielle du membre inférieur. Elle fait suite à la veine marginale médiale du pied. C'est la veine la plus longue du corps, s'étendant le long du membre inférieur et ramenant le sang du pied, de la jambe et de la cuisse vers la veine fémorale au niveau du triangle fémoral .  
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Veine_grande_saph%C3%A8ne</t>
+          <t>Veine_grande_saphène</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La veine grande saphène naît sur le bord médial du pied dans le prolongement de la veine marginale médiale du pied.
 Elle chemine entre la peau et le fascia crural. Elle passe en avant de la malléole médiale, puis sur la face médiale de la jambe, puis à la face postérieure de l'épicondyle médial du fémur, puis à la face médiale cuisse, pour finir à la face antérieure de la cuisse au niveau du triangle fémoral.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Veine_grande_saph%C3%A8ne</t>
+          <t>Veine_grande_saphène</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Affluences</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La veine grande saphène draine l'arcade veineuse dorsale du pied par le biais de la veine marginale médiale du pied.
 Au niveau de la jambe, elle s'anastomose librement avec la petite veine saphène et communique par les veines perforantes de Cockett avec les veines tibiales postérieures et antérieures.
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Veine_grande_saph%C3%A8ne</t>
+          <t>Veine_grande_saphène</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Terminaison</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La veine grande saphène se termine en forme de crosse pour passer dans le hiatus saphène et se jeter dans la veine fémorale.
 </t>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Veine_grande_saph%C3%A8ne</t>
+          <t>Veine_grande_saphène</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,13 +630,88 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pathologie
-Les pathologies de la grande veine saphène (varice, thrombose veineuse superficielle, thrombophlébite)  sont relativement courantes, mais isolées, elles ne mettent généralement pas la vie en danger[2].
-Utilisation chirurgicale
-La veine grande saphène peut  utilisée pour l'autotransplantation dans les opérations de pontage coronarien, lorsque les greffons artériels ne sont pas disponibles ou que de nombreux greffons sont nécessaires, comme pour un triple pontage ou un quadruple pontage.
+          <t>Pathologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les pathologies de la grande veine saphène (varice, thrombose veineuse superficielle, thrombophlébite)  sont relativement courantes, mais isolées, elles ne mettent généralement pas la vie en danger.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Veine_grande_saphène</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Veine_grande_saph%C3%A8ne</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Aspect clinique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Utilisation chirurgicale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La veine grande saphène peut  utilisée pour l'autotransplantation dans les opérations de pontage coronarien, lorsque les greffons artériels ne sont pas disponibles ou que de nombreux greffons sont nécessaires, comme pour un triple pontage ou un quadruple pontage.
 L’ablation de la veine saphène n’entravera pas sensiblement la circulation normale dans la jambe grâce à une circulation collatérale riche.
-Médecine d'urgence
-Lorsque qu'un accès intraveineux standard ne peut pas être obtenu en raison d'un collapsus veineux, la veine grande saphène peut être utilisée par sa section.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Veine_grande_saphène</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Veine_grande_saph%C3%A8ne</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Aspect clinique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Médecine d'urgence</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorsque qu'un accès intraveineux standard ne peut pas être obtenu en raison d'un collapsus veineux, la veine grande saphène peut être utilisée par sa section.
 </t>
         </is>
       </c>
